--- a/biology/Médecine/Syndrome_de_McLeod/Syndrome_de_McLeod.xlsx
+++ b/biology/Médecine/Syndrome_de_McLeod/Syndrome_de_McLeod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de McLeod ou syndrome neuroacanthocytosique de McLeod est une maladie se manifestant chez un homme par des anomalies neurologiques, psychiatriques et hématologiques.
@@ -515,7 +527,9 @@
           <t>Le syndrome de McLeod dans les œuvres de fiction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la série Dr House (saison 7 Épisode 12), le Docteur House décèle cette maladie à une patiente.
 </t>
@@ -546,9 +560,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Hans H Jung, Adrian Danek, Ruth H Walker, Beat M Frey et Christoph Gassner « McLeod Neuroacanthocytosis Syndrome » In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1] PMID 20301528
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Hans H Jung, Adrian Danek, Ruth H Walker, Beat M Frey et Christoph Gassner « McLeod Neuroacanthocytosis Syndrome » In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005  PMID 20301528
 fiche Orphanet
  Portail de la médecine                     </t>
         </is>
